--- a/数字三角形 .xlsx
+++ b/数字三角形 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/蓝桥杯/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E01B5-D6CB-1A49-AA51-7B575E23F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6A721-8A64-4248-B7CA-3AE94FCC83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{EC3C57D9-8EB7-804B-B521-F2D6E2B01AF6}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
